--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-N.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-N.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-N.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-N.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'N': 112.5 ton, 2.64 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'N': 75.0-150.0 ton, 4.69 COP, 7.18 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>dd55891b-2d56-4f94-ac63-7e6ec43561d8</t>
+          <t>31a7f511-95b5-4a62-8ae9-d86c5dc63418</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>179575.5416306941</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26119.97433003352</v>
+        <v>14692.48349962731</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>100049.4035397223</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>126169.3778697558</v>
+        <v>114741.8870393496</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4415179505398</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.1149949868851</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43364.88174740805</v>
+        <v>24392.74256117789</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>200098.8070794446</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>243463.6888268526</v>
+        <v>224491.5496406224</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8441470121907</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.2187003934568</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72961.27568537988</v>
+        <v>41040.71181596095</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>300148.2106191668</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>373109.4863045467</v>
+        <v>341188.9224351278</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2467760738415</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4386297016035</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114909.156143949</v>
+        <v>64636.39126397651</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>400197.6141588891</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>515106.7703028381</v>
+        <v>464834.0054228656</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6494051354924</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.7747829113252</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>29386.05589013038</v>
+        <v>16529.65411946913</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>95242.33109753093</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>124628.3869876613</v>
+        <v>111771.9852170001</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3741258495344</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.1787644715004</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48787.29291984691</v>
+        <v>27442.84841781525</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>190484.6621950619</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>239271.9551149088</v>
+        <v>217927.5106128771</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7093628101799</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2613867002856</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>82084.46524545386</v>
+        <v>46172.50522363032</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>285726.9932925928</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>367811.4585380467</v>
+        <v>331899.4985162232</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0445997708253</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.4752334599089</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129277.5728669512</v>
+        <v>72718.62453691434</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>380969.3243901237</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>510246.8972570749</v>
+        <v>453687.9489270381</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3798367314708</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8203047503702</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33658.20788086333</v>
+        <v>18932.739277159</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>87943.11625070992</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>121601.3241315733</v>
+        <v>106875.8555278689</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2717954956375</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.2279546780139</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55880.00149391581</v>
+        <v>31432.49643107341</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>175886.2325014198</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>231766.2339953356</v>
+        <v>207318.7289324932</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5047021023862</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.2716369285205</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>94017.92487398449</v>
+        <v>52885.07532306004</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>263829.3487521298</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>357847.2736261142</v>
+        <v>316714.4240751898</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7376087091349</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.4661056876816</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>148071.9780210693</v>
+        <v>83290.47595311888</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>351772.4650028397</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>499844.443023909</v>
+        <v>435062.9409559586</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>281.9705153158836</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.8113609554973</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37796.71255938254</v>
+        <v>21260.64783227418</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>78151.75899925927</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>115948.4715586418</v>
+        <v>99412.40683153344</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1345268888493</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.2520244053416</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62750.82624004604</v>
+        <v>35297.33480862399</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>156303.5179985185</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>219054.3442385646</v>
+        <v>191600.8528071425</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.2301648888098</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.2319871982953</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105578.0656673651</v>
+        <v>59387.65360717489</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>234455.2769977778</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>340033.3426651429</v>
+        <v>293842.9306049527</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.3258028887702</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.3818239059956</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>166278.4308413397</v>
+        <v>93531.60422792689</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>312607.0359970371</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>478885.4668383768</v>
+        <v>406138.640224964</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.4214408887307</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.7015345284425</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>26527.29110934032</v>
+        <v>14921.59915584775</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>112396.5566129631</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>138923.8477223034</v>
+        <v>127318.1557688108</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.5069449036434</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.2350108445967</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44041.11686713649</v>
+        <v>24773.12476266629</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>224793.1132259261</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>268834.2300930626</v>
+        <v>249566.2379885924</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.086112029509</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.4574298197579</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>74099.03912460779</v>
+        <v>41680.70366075056</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>337189.6698388892</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>411288.708963497</v>
+        <v>378870.3734996397</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.6652791553745</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.7978851004677</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>116701.0578817542</v>
+        <v>65644.33585010057</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>449586.2264518522</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>566287.2843336065</v>
+        <v>515230.5623019528</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.2444462812401</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.2563766867261</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30003.98558905091</v>
+        <v>16877.23952635372</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>107669.7632678396</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>137673.7488568905</v>
+        <v>124547.0027941933</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4405336461608</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.3019567183301</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49813.1916433035</v>
+        <v>28019.91636881025</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>215339.5265356792</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>265152.7181789827</v>
+        <v>243359.4429044895</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9532895145438</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.5057884565184</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>83810.53658639254</v>
+        <v>47143.42021671135</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>323009.2898035188</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>406819.8263899114</v>
+        <v>370152.7100202302</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4660453829268</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.8436041137094</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>131996.020418318</v>
+        <v>74247.75107005698</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>430679.0530713584</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>562675.0734896765</v>
+        <v>504926.8041414154</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9788012513098</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.3154036899032</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34960.55029150985</v>
+        <v>19665.30678038534</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>100450.8275180865</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>135411.3778095963</v>
+        <v>120116.1342984718</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3391078875497</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.3587886061687</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>58042.17531226384</v>
+        <v>32648.71903328619</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>200901.655036173</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>258943.8303484368</v>
+        <v>233550.3740694592</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7504379973216</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.5291125163483</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>97655.77544992039</v>
+        <v>54931.3659849766</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>301352.4825542595</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>399008.2580041799</v>
+        <v>356283.8485392361</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1617681070935</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.8560573416329</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>153801.3507044795</v>
+        <v>86513.24763545656</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>401803.310072346</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>555604.6607768254</v>
+        <v>488316.5577078025</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5730982168653</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3396230820226</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>40299.71974464216</v>
+        <v>22668.58917648102</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>90739.74936370374</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>131039.4691083459</v>
+        <v>113408.3385401848</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2026676278101</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.3954557708195</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>66906.36671762187</v>
+        <v>37634.82599936429</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>181479.4987274075</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>248385.8654450293</v>
+        <v>219114.3247267718</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.4775574778423</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.5107666576603</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>112569.749310646</v>
+        <v>63320.47510483627</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>272219.2480911112</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>384788.9974017572</v>
+        <v>335539.7231959475</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7524473278746</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.8072009992317</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>177289.8675237146</v>
+        <v>99725.53649289696</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>362958.997454815</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>540248.8649785296</v>
+        <v>462684.5339477119</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.0273371779068</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2847587955338</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>26866.84148916575</v>
+        <v>15112.59621770707</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>118529.8083963889</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>145396.6498855547</v>
+        <v>133642.404614096</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4851188641483</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.295918033402</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>44604.84491228571</v>
+        <v>25090.22174358133</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>237059.6167927778</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>281664.4617050635</v>
+        <v>262149.8385363591</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.15357106163</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.5781585736265</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>75047.50976851012</v>
+        <v>42214.21832310582</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>355589.4251891667</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>430636.9349576768</v>
+        <v>397803.6435122725</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.8220232591117</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.9799462887989</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>118194.836057839</v>
+        <v>66484.58595628053</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>474119.2335855556</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>592314.0696433946</v>
+        <v>540603.8195418362</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.4904754565934</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.5012811789193</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>30122.30388480612</v>
+        <v>16943.79355838002</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>113883.2941483333</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>144005.5980331395</v>
+        <v>130827.0877067134</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.4197134862718</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.3617507458496</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>50009.62594446894</v>
+        <v>28130.41064771602</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>227766.5882966667</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>277776.2142411356</v>
+        <v>255896.9989443827</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>288.022760305877</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.6249968662453</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>84141.03667364929</v>
+        <v>47329.32648971491</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>341649.882445</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>425790.9191186493</v>
+        <v>388979.2089347149</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.6258071254821</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.0227552604156</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>132516.5360723471</v>
+        <v>74540.54108437666</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>455533.1765933333</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>588049.7126656803</v>
+        <v>530073.71767771</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.2288539450873</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.5550259283602</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>35124.71972540556</v>
+        <v>19757.65207399777</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>106744.6374956481</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>141869.3572210537</v>
+        <v>126502.2895696459</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.319228152326</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.4199703245054</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>58314.7325513129</v>
+        <v>32802.03245874496</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>213489.2749912962</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>271804.0075426091</v>
+        <v>246291.3074500412</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8217896379854</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.6509474880514</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>98114.35213817557</v>
+        <v>55189.3153359358</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>320233.9124869443</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>418348.2646251199</v>
+        <v>375423.2278228801</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.3243511236448</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0392810347301</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>154523.5784859936</v>
+        <v>86919.50070557032</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>426978.5499825925</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>581502.128468586</v>
+        <v>513898.0506881628</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8269126093042</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.5849709645415</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>40819.27580966395</v>
+        <v>22960.83942205981</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>97113.83843833329</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>137933.1142479972</v>
+        <v>120074.6778603931</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.183662862311</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.4609759547731</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>67768.94364959505</v>
+        <v>38120.02545553692</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>194227.6768766666</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>261996.6205262616</v>
+        <v>232347.7023322035</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5506590579554</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.640129158718</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>114021.0322566051</v>
+        <v>64136.82164742366</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>291341.5153149999</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>405362.547571605</v>
+        <v>355478.3369624235</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9176552535997</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.0027409152558</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>179575.5416306941</v>
+        <v>101011.22799772</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>388455.3537533332</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>568030.8953840272</v>
+        <v>489466.5817510532</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.2846514492441</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5488112243863</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>27601.90418388501</v>
+        <v>15526.06892548597</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>118449.1588899999</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>146051.0630738849</v>
+        <v>133975.2278154859</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3756346372344</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.3020758714778</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>45825.21007921392</v>
+        <v>25776.6770536846</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>236898.3177799998</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>282723.5278592138</v>
+        <v>262674.9948336844</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>292.0457137189133</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.5881240786089</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>77100.77028239142</v>
+        <v>43369.17720014995</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>355347.4766699997</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>432448.2469523911</v>
+        <v>398716.6538701496</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.7157928005922</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.9969902087064</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>121428.5847934175</v>
+        <v>68303.56936488202</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>473796.6355599996</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>595225.2203534171</v>
+        <v>542100.2049248817</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.3858718822711</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.5286742617703</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>30297.87862076228</v>
+        <v>17042.55433350151</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>113882.9237390123</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>144180.8023597746</v>
+        <v>130925.4780725138</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.3112528055764</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.3634052660437</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>50301.1184844833</v>
+        <v>28294.37517847366</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>227765.8474780245</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>278066.9659625079</v>
+        <v>256060.2226564982</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.9169500555973</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.6277425438421</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>84631.47194558429</v>
+        <v>47605.19629148018</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>341648.7712170368</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>426280.2431626211</v>
+        <v>389253.967508517</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.5226473056181</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.0273761309601</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>133288.9390040652</v>
+        <v>74975.01767252106</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>455531.6949560491</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>588820.6339601143</v>
+        <v>530506.7126285702</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.1283445556389</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.5623060273979</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>34801.17315490783</v>
+        <v>19575.65715362248</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>106824.546183395</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>141625.7193383028</v>
+        <v>126400.2033370174</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2117329033948</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.4176621436691</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>57777.57433698492</v>
+        <v>32499.88100557035</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>213649.0923667899</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>271426.6667037748</v>
+        <v>246148.9733723603</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.717910251234</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.6473726298105</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>97210.58515016591</v>
+        <v>54680.9464764928</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>320473.6385501849</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>417684.2237003508</v>
+        <v>375154.5850266777</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2240875990732</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.032990032199</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>153100.2055944508</v>
+        <v>86118.85356638985</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>427298.1847335799</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>580398.3903280307</v>
+        <v>513417.0382999697</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.7302649469125</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.5745143508346</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>40099.42685579639</v>
+        <v>22555.92444230954</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>97274.02622314802</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>137373.4530789444</v>
+        <v>119829.9506654576</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.0770749306896</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.4556566930465</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>66573.83662666935</v>
+        <v>37447.77784944203</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>194548.052446296</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>261121.8890729654</v>
+        <v>231995.8302957381</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.4485943058236</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.6318153327857</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>112010.2684897137</v>
+        <v>63005.76718720813</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>291822.0786694441</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>403832.3471591578</v>
+        <v>354827.8458566522</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.8201136809576</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>316.9881972289362</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.02537183971573188</v>
+        <v>0.02232036045811859</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>176408.7224449296</v>
+        <v>99229.8924556078</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>389096.1048925921</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>565504.8273375216</v>
+        <v>488325.9973481998</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.1916330560916</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5248023814979</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.01695230480062351</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.01695230480062351</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.01695230480062351</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.01695230480062351</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.02232036045811859</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.02232036045811859</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.02232036045811859</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.02232036045811859</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>